--- a/data/optimization_config.xlsx
+++ b/data/optimization_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\bioreactor-implementation-june\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC9D40-9783-4359-A1C7-D39605645B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A0D74-40FB-45A7-9779-4F537FD104C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="19200" windowHeight="9970" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C2">
         <v>15000</v>
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +701,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>239.45609999999999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>288.56950000000001</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -739,7 +739,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>224.84180000000001</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -747,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>93.989689999999996</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -755,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>325.7405</v>
+        <v>409.75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>85.272930000000002</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -771,7 +771,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>2.5543909999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -779,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>35.840730000000001</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -787,7 +787,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>78.609979999999993</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -795,7 +795,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>125.1982</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -803,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>76.522440000000003</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -811,7 +811,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>2434.915</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -819,7 +819,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>1477.8119999999999</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -827,7 +827,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>157.90209999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -835,7 +835,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>354.93650000000002</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -843,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>8.5253999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -851,7 +851,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>21.627669999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -859,7 +859,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>29.46679</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +872,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2.2399999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">

--- a/data/optimization_config.xlsx
+++ b/data/optimization_config.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\bioreactor-implementation-june\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A0D74-40FB-45A7-9779-4F537FD104C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69214F28-9840-4F4E-BB62-149E22B89D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="decision_var" sheetId="2" r:id="rId2"/>
     <sheet name="decision_var_bound" sheetId="3" r:id="rId3"/>
-    <sheet name="influent_compound_conc" sheetId="4" r:id="rId4"/>
-    <sheet name="cost_param" sheetId="5" r:id="rId5"/>
-    <sheet name="fuzzy_goal" sheetId="6" r:id="rId6"/>
+    <sheet name="cost_var" sheetId="7" r:id="rId4"/>
+    <sheet name="capex_calc" sheetId="8" r:id="rId5"/>
+    <sheet name="influent_compound_conc" sheetId="4" r:id="rId6"/>
+    <sheet name="fuzzy_goal" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
   <si>
     <t>Parameter</t>
   </si>
@@ -49,24 +50,12 @@
     <t>model_path</t>
   </si>
   <si>
-    <t>models/clefo_model.joblib</t>
-  </si>
-  <si>
-    <t>M_penalty</t>
-  </si>
-  <si>
     <t>I_variables</t>
   </si>
   <si>
     <t>flow_rate</t>
   </si>
   <si>
-    <t>HRT</t>
-  </si>
-  <si>
-    <t>DO_setpoint</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -121,48 +110,9 @@
     <t>inf_S_ALK</t>
   </si>
   <si>
-    <t>inf_S_O2</t>
-  </si>
-  <si>
-    <t>inf_X_MeOH</t>
-  </si>
-  <si>
-    <t>inf_X_MeP</t>
-  </si>
-  <si>
-    <t>C_base</t>
-  </si>
-  <si>
-    <t>V_base</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>F_BM</t>
-  </si>
-  <si>
-    <t>P_mix_specific</t>
-  </si>
-  <si>
-    <t>eta_aerator</t>
-  </si>
-  <si>
-    <t>p_elec</t>
-  </si>
-  <si>
-    <t>H_op</t>
-  </si>
-  <si>
-    <t>f_maint</t>
-  </si>
-  <si>
     <t>C_labor</t>
   </si>
   <si>
-    <t>rho_O2_bio</t>
-  </si>
-  <si>
     <t>Goal</t>
   </si>
   <si>
@@ -172,29 +122,311 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Effluent_S_NH4</t>
-  </si>
-  <si>
-    <t>Effluent_S_NO3</t>
-  </si>
-  <si>
-    <t>Effluent_S_PO4</t>
-  </si>
-  <si>
-    <t>Effluent_X_S</t>
-  </si>
-  <si>
     <t>CAPEX</t>
   </si>
   <si>
     <t>AOC</t>
+  </si>
+  <si>
+    <t>models\clarifier\clarifier.joblib</t>
+  </si>
+  <si>
+    <t>Q_was</t>
+  </si>
+  <si>
+    <t>Q_ext</t>
+  </si>
+  <si>
+    <t>O3_split_internal</t>
+  </si>
+  <si>
+    <t>C1_surface_area</t>
+  </si>
+  <si>
+    <t>C1_height</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Clarifier height [m]</t>
+  </si>
+  <si>
+    <t>C1_wall_thickness</t>
+  </si>
+  <si>
+    <t>Thickness of clarifier walls [m]</t>
+  </si>
+  <si>
+    <t>C1_base_thickness</t>
+  </si>
+  <si>
+    <t>Thickness of clarifier base slab [m]</t>
+  </si>
+  <si>
+    <t>Sludge wastage flowrate [m3/d]</t>
+  </si>
+  <si>
+    <t>External recycle flowrate from C1 to A1 [m3/d]</t>
+  </si>
+  <si>
+    <t>unit_cost_concrete</t>
+  </si>
+  <si>
+    <t>unit_cost_steel</t>
+  </si>
+  <si>
+    <t>Unit cost of steel reinforcement [USD/ton]</t>
+  </si>
+  <si>
+    <t>steel_reinforcement_ratio</t>
+  </si>
+  <si>
+    <t>Ratio of steel to concrete [ton/m3]</t>
+  </si>
+  <si>
+    <t>equipment_cost_factor</t>
+  </si>
+  <si>
+    <t>Equipment cost as a fraction of construction cost</t>
+  </si>
+  <si>
+    <t>engineering_cost_factor</t>
+  </si>
+  <si>
+    <t>Engineering &amp; design as a fraction of construction + equipment cost</t>
+  </si>
+  <si>
+    <t>contingency_factor</t>
+  </si>
+  <si>
+    <t>Contingency as a fraction of construction + equipment cost</t>
+  </si>
+  <si>
+    <t>scraper_motor_power</t>
+  </si>
+  <si>
+    <t>sludge_pump_power</t>
+  </si>
+  <si>
+    <t>Power rating of the sludge pumps [kW]</t>
+  </si>
+  <si>
+    <t>pump_efficiency</t>
+  </si>
+  <si>
+    <t>Overall efficiency of the sludge pumps</t>
+  </si>
+  <si>
+    <t>TDH_pump</t>
+  </si>
+  <si>
+    <t>Total Dynamic Head for sludge pumps [m]</t>
+  </si>
+  <si>
+    <t>electricity_price</t>
+  </si>
+  <si>
+    <t>Unit price of electricity [USD/kWh]</t>
+  </si>
+  <si>
+    <t>maintenance_factor</t>
+  </si>
+  <si>
+    <t>Annual maintenance cost as a fraction of equipment cost</t>
+  </si>
+  <si>
+    <t>labor_rate</t>
+  </si>
+  <si>
+    <t>Hourly labor rate for operators [USD/hour]</t>
+  </si>
+  <si>
+    <t>daily_labor_hours</t>
+  </si>
+  <si>
+    <t>Daily operator hours for clarifier tasks [hours/day]</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>Density of water [ kg/m3 ]</t>
+  </si>
+  <si>
+    <t>Output Variable</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>V_concrete_walls</t>
+  </si>
+  <si>
+    <t>(C1_surface_area**0.5 * 4) * C1_height * C1_wall_thickness</t>
+  </si>
+  <si>
+    <t>V_concrete_base</t>
+  </si>
+  <si>
+    <t>Volume of concrete for base [m3]</t>
+  </si>
+  <si>
+    <t>C1_surface_area * C1_base_thickness</t>
+  </si>
+  <si>
+    <t>V_concrete_total</t>
+  </si>
+  <si>
+    <t>Total volume of concrete [m3]</t>
+  </si>
+  <si>
+    <t>V_concrete_walls + V_concrete_base</t>
+  </si>
+  <si>
+    <t>W_steel</t>
+  </si>
+  <si>
+    <t>Total weight of steel reinforcement [ton]</t>
+  </si>
+  <si>
+    <t>V_concrete_total * steel_reinforcement_ratio</t>
+  </si>
+  <si>
+    <t>C_const</t>
+  </si>
+  <si>
+    <t>Total Construction Cost [USD]</t>
+  </si>
+  <si>
+    <t>(V_concrete_total * unit_cost_concrete) + (W_steel * unit_cost_steel)</t>
+  </si>
+  <si>
+    <t>C_equip</t>
+  </si>
+  <si>
+    <t>Total Equipment Cost [USD]</t>
+  </si>
+  <si>
+    <t>C_const * equipment_cost_factor</t>
+  </si>
+  <si>
+    <t>C_direct</t>
+  </si>
+  <si>
+    <t>Direct Costs (Construction + Equipment) [USD]</t>
+  </si>
+  <si>
+    <t>C_const + C_equip</t>
+  </si>
+  <si>
+    <t>C_engineering</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Design Cost [USD]</t>
+  </si>
+  <si>
+    <t>C_direct * engineering_cost_factor</t>
+  </si>
+  <si>
+    <t>C_contingency</t>
+  </si>
+  <si>
+    <t>Contingency Cost [USD]</t>
+  </si>
+  <si>
+    <t>C_direct * contingency_factor</t>
+  </si>
+  <si>
+    <t>Total Clarifier CAPEX [USD]</t>
+  </si>
+  <si>
+    <t>C_direct + C_engineering + C_contingency</t>
+  </si>
+  <si>
+    <t>energy_scraper_yearly</t>
+  </si>
+  <si>
+    <t>scraper_motor_power * 24 * 365</t>
+  </si>
+  <si>
+    <t>energy_pumps_yearly</t>
+  </si>
+  <si>
+    <t>Annual energy for sludge pumps [kWh/year]</t>
+  </si>
+  <si>
+    <t>((Q_was + Q_ext) * rho * g * TDH_pump) / (24 * 3600 * 1000 * pump_efficiency) * 24 * 365</t>
+  </si>
+  <si>
+    <t>C_energy</t>
+  </si>
+  <si>
+    <t>Annual Energy Cost [USD/year]</t>
+  </si>
+  <si>
+    <t>(energy_scraper_yearly + energy_pumps_yearly) * electricity_price</t>
+  </si>
+  <si>
+    <t>C_maint</t>
+  </si>
+  <si>
+    <t>Annual Maintenance Cost [USD/year]</t>
+  </si>
+  <si>
+    <t>C_equip * maintenance_factor</t>
+  </si>
+  <si>
+    <t>Annual Labor Cost [USD/year]</t>
+  </si>
+  <si>
+    <t>daily_labor_hours * 365 * labor_rate</t>
+  </si>
+  <si>
+    <t>Total Clarifier AOC [USD/year]</t>
+  </si>
+  <si>
+    <t>C_energy + C_maint + C_labor</t>
+  </si>
+  <si>
+    <t># Constants: Gravitational acceleration [m/s2]</t>
+  </si>
+  <si>
+    <t># Unit Costs &amp; Factors (AOC): Power rating of the scraper motor [kW]</t>
+  </si>
+  <si>
+    <t># Unit Costs (CAPEX): Unit cost of concrete [USD/m3]</t>
+  </si>
+  <si>
+    <t># Design Inputs: Clarifier surface area [m2]</t>
+  </si>
+  <si>
+    <t># CAPEX Calculations: Volume of concrete for walls [m3]</t>
+  </si>
+  <si>
+    <t># AOC Calculations: Annual energy for scraper [kWh/year]</t>
+  </si>
+  <si>
+    <t>Target_Effluent_S_NH4 (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_S_NO3 (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_S_PO4 (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_X_S (mg/L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +438,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -251,6 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,16 +794,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -578,15 +819,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1000000000</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -596,35 +829,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -634,61 +882,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>10000</v>
       </c>
       <c r="C2">
-        <v>15000</v>
+        <v>18446</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -697,11 +978,492 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB90DCB-9184-4A4C-ADAC-9EF9649A54F3}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68876A8-317C-4419-AD33-026FAB570D50}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,7 +1474,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -720,146 +1482,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>15.30182353654962</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>26.5</v>
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1370.1019480783889</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2">
-        <v>20.100000000000001</v>
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1.4790660490900831</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
-        <v>94.3</v>
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>19.660271109244469</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2">
-        <v>409.75</v>
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>300.11969116517008</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>43.543633164702307</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>5.9128477477474206</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.26600000000000001</v>
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>5.3352533564363473E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2.8</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>17.246973718716379</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.05</v>
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.18005230397620631</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>87.393417561510091</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2000</v>
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>3022.197505679067</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>105.7547487555956</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2">
-        <v>100</v>
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>80.005588615161301</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>108.203686922611</v>
       </c>
     </row>
   </sheetData>
@@ -867,211 +1605,97 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B12"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>24.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.2399999999999998</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
       <c r="C6">
         <f>B6*1.7</f>
-        <v>8500000</v>
+        <v>13600000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <f>B6/3</f>
-        <v>1666666.6666666667</v>
+        <f>B6/10</f>
+        <v>800000</v>
       </c>
       <c r="C7">
         <f>B7*1.8</f>
-        <v>3000000</v>
+        <v>1440000</v>
       </c>
     </row>
   </sheetData>

--- a/data/optimization_config.xlsx
+++ b/data/optimization_config.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\bioreactor-implementation-june\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69214F28-9840-4F4E-BB62-149E22B89D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87EB6E0-8383-4D66-891A-91D9D4598C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="decision_var" sheetId="2" r:id="rId2"/>
     <sheet name="decision_var_bound" sheetId="3" r:id="rId3"/>
-    <sheet name="cost_var" sheetId="7" r:id="rId4"/>
-    <sheet name="capex_calc" sheetId="8" r:id="rId5"/>
-    <sheet name="influent_compound_conc" sheetId="4" r:id="rId6"/>
-    <sheet name="fuzzy_goal" sheetId="6" r:id="rId7"/>
+    <sheet name="cost_var_cstr" sheetId="7" r:id="rId4"/>
+    <sheet name="capex_calc_cstr" sheetId="8" r:id="rId5"/>
+    <sheet name="cost_var_clarifier" sheetId="9" r:id="rId6"/>
+    <sheet name="capex_calc_clarifier" sheetId="10" r:id="rId7"/>
+    <sheet name="influent_compound_conc" sheetId="4" r:id="rId8"/>
+    <sheet name="fuzzy_goal" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="315">
   <si>
     <t>Parameter</t>
   </si>
@@ -110,9 +112,6 @@
     <t>inf_S_ALK</t>
   </si>
   <si>
-    <t>C_labor</t>
-  </si>
-  <si>
     <t>Goal</t>
   </si>
   <si>
@@ -149,284 +148,851 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Clarifier height [m]</t>
-  </si>
-  <si>
-    <t>C1_wall_thickness</t>
-  </si>
-  <si>
-    <t>Thickness of clarifier walls [m]</t>
-  </si>
-  <si>
-    <t>C1_base_thickness</t>
-  </si>
-  <si>
-    <t>Thickness of clarifier base slab [m]</t>
-  </si>
-  <si>
-    <t>Sludge wastage flowrate [m3/d]</t>
-  </si>
-  <si>
-    <t>External recycle flowrate from C1 to A1 [m3/d]</t>
-  </si>
-  <si>
     <t>unit_cost_concrete</t>
   </si>
   <si>
-    <t>unit_cost_steel</t>
-  </si>
-  <si>
-    <t>Unit cost of steel reinforcement [USD/ton]</t>
-  </si>
-  <si>
-    <t>steel_reinforcement_ratio</t>
-  </si>
-  <si>
-    <t>Ratio of steel to concrete [ton/m3]</t>
-  </si>
-  <si>
-    <t>equipment_cost_factor</t>
-  </si>
-  <si>
-    <t>Equipment cost as a fraction of construction cost</t>
-  </si>
-  <si>
-    <t>engineering_cost_factor</t>
-  </si>
-  <si>
-    <t>Engineering &amp; design as a fraction of construction + equipment cost</t>
-  </si>
-  <si>
-    <t>contingency_factor</t>
-  </si>
-  <si>
-    <t>Contingency as a fraction of construction + equipment cost</t>
-  </si>
-  <si>
-    <t>scraper_motor_power</t>
-  </si>
-  <si>
-    <t>sludge_pump_power</t>
-  </si>
-  <si>
-    <t>Power rating of the sludge pumps [kW]</t>
+    <t>electricity_price</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Target_Effluent_S_NH4 (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_S_NO3 (mg/L)</t>
+  </si>
+  <si>
+    <t>Source of Standard</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Target_Effluent_COD (mg/L)</t>
+  </si>
+  <si>
+    <t>Philippines: DENR Administrative Order 2016-08[1]</t>
+  </si>
+  <si>
+    <t>Target_Effluent_BOD (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_TP (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_TSS (mg/L)</t>
+  </si>
+  <si>
+    <t>Limits are dependent on the classification of the receiving water body.</t>
+  </si>
+  <si>
+    <t>Limits vary depending on the classification of the receiving water body (Class A, B, C, D for freshwater and SA, SB, SC, SD for marine water).[1][2] For establishments with influent BOD ≥ 3,000 mg/L discharging to specific water classes, different standards may apply.[1][3]</t>
+  </si>
+  <si>
+    <t>Limits vary based on the classification of the receiving water body. For establishments with influent BOD ≥ 3,000 mg/L, specific effluent standards for BOD are enforced.[3][4]</t>
+  </si>
+  <si>
+    <t>Philippines: DENR Administrative Order 2021-19[9][10]</t>
+  </si>
+  <si>
+    <t>The standard is for Phosphate as P and the limit varies depending on the classification of the receiving water body.[9][10]</t>
+  </si>
+  <si>
+    <t>Philippines: DENR Administrative Order 2021-19</t>
+  </si>
+  <si>
+    <t>The limits for Ammonia as NH₃-N were updated in DAO 2021-19 and vary depending on the water body classification. For Class AA (freshwater) and SA (marine water), the standard is No Discharge Allowed (NDA).[3][4]</t>
+  </si>
+  <si>
+    <t>Philippines: DENR Administrative Order 2016-08</t>
+  </si>
+  <si>
+    <t>The limits vary depending on the classification of the receiving water body.[5][6]</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>models\cstr\cstr.joblib</t>
+  </si>
+  <si>
+    <t>Process Unit</t>
+  </si>
+  <si>
+    <t>cstr</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>clarifier</t>
+  </si>
+  <si>
+    <t>KLa</t>
+  </si>
+  <si>
+    <t>Volume of the aerobic CSTR reactor [m³]</t>
+  </si>
+  <si>
+    <t>Required volumetric mass transfer coefficient [d⁻¹]</t>
+  </si>
+  <si>
+    <t>DO_setpoint</t>
+  </si>
+  <si>
+    <t>Desired Dissolved Oxygen concentration in the reactor [g/m³ or mg/L]</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Operating temperature of the wastewater [°C]</t>
+  </si>
+  <si>
+    <t>alpha_factor</t>
+  </si>
+  <si>
+    <t>Correction factor for oxygen transfer in wastewater vs clean water [-]</t>
+  </si>
+  <si>
+    <t>beta_factor</t>
+  </si>
+  <si>
+    <t>Correction factor for oxygen saturation in wastewater vs clean water [-]</t>
+  </si>
+  <si>
+    <t>C_s_20</t>
+  </si>
+  <si>
+    <t>Saturation concentration of oxygen in clean water at 20°C, 1 atm [g/m³]</t>
+  </si>
+  <si>
+    <t>tank_H_to_D_ratio</t>
+  </si>
+  <si>
+    <t>Target ratio of height to diameter for the cylindrical tank [-]</t>
+  </si>
+  <si>
+    <t>tank_freeboard</t>
+  </si>
+  <si>
+    <t>Additional height of the tank wall above the water level [m]</t>
+  </si>
+  <si>
+    <t>concrete_volume_factor</t>
+  </si>
+  <si>
+    <t>Factor to estimate concrete volume from tank structural volume [-]</t>
+  </si>
+  <si>
+    <t>blower_pressure_head</t>
+  </si>
+  <si>
+    <t>Pressure required from the blower to overcome hydrostatic pressure and losses [Pa]</t>
+  </si>
+  <si>
+    <t>blower_efficiency</t>
+  </si>
+  <si>
+    <t>Overall efficiency of the blower and motor combination [-]</t>
+  </si>
+  <si>
+    <t>SOTE</t>
+  </si>
+  <si>
+    <t>Standard Oxygen Transfer Efficiency of the selected diffusers [-]</t>
+  </si>
+  <si>
+    <t>diffuser_density</t>
+  </si>
+  <si>
+    <t>Number of diffuser units required per square meter of tank floor [units/m²]</t>
+  </si>
+  <si>
+    <t>mixing_energy_density</t>
+  </si>
+  <si>
+    <t>Power input required for complete mixing [W/m³]</t>
+  </si>
+  <si>
+    <t>air_density_kg_m3</t>
+  </si>
+  <si>
+    <t>Density of air at standard conditions [ kg/m ³]</t>
+  </si>
+  <si>
+    <t>air_O2_percent_mass</t>
+  </si>
+  <si>
+    <t>Mass percentage of oxygen in air [-]</t>
+  </si>
+  <si>
+    <t>All-in cost for reinforced concrete, including labor and formwork [USD/m³]</t>
+  </si>
+  <si>
+    <t>unit_cost_excavation</t>
+  </si>
+  <si>
+    <t>Cost of excavation per cubic meter [USD/m³]</t>
+  </si>
+  <si>
+    <t>unit_cost_blower</t>
+  </si>
+  <si>
+    <t>Cost per kilowatt of blower power [USD/kW]</t>
+  </si>
+  <si>
+    <t>unit_cost_diffuser</t>
+  </si>
+  <si>
+    <t>Cost per diffuser unit [USD/unit]</t>
+  </si>
+  <si>
+    <t>unit_cost_mixer</t>
+  </si>
+  <si>
+    <t>Cost per kilowatt of mixer power [USD/kW]</t>
+  </si>
+  <si>
+    <t>factor_cost_piping</t>
+  </si>
+  <si>
+    <t>Piping &amp; valve costs as a fraction of total equipment cost [-]</t>
+  </si>
+  <si>
+    <t>factor_cost_instr</t>
+  </si>
+  <si>
+    <t>Instrumentation &amp; control costs as a fraction of total equipment cost [-]</t>
+  </si>
+  <si>
+    <t>factor_contingency</t>
+  </si>
+  <si>
+    <t>Contingency as a fraction of the subtotal CAPEX [-]</t>
+  </si>
+  <si>
+    <t>Cost of electricity [USD/kWh]</t>
+  </si>
+  <si>
+    <t>operating_hours</t>
+  </si>
+  <si>
+    <t>Annual operating hours [h/year]</t>
+  </si>
+  <si>
+    <t>factor_maint_equip</t>
+  </si>
+  <si>
+    <t>Annual maintenance for equipment as a fraction of equipment cost [-]</t>
+  </si>
+  <si>
+    <t>factor_maint_civil</t>
+  </si>
+  <si>
+    <t>Annual maintenance for civil works as a fraction of civil cost [-]</t>
+  </si>
+  <si>
+    <t>Oxygen saturation concentration at operating temperature T [g/m³]</t>
+  </si>
+  <si>
+    <t>C_s_20 * (0.9777** (T - 20))</t>
+  </si>
+  <si>
+    <t>--- Civil Works ---</t>
+  </si>
+  <si>
+    <t>--- Calculations for Tank Construction ---</t>
+  </si>
+  <si>
+    <t>Calculated diameter of the cylindrical reactor [m]</t>
+  </si>
+  <si>
+    <t>((4 * V) / (3.14159 * tank_H_to_D_ratio))**(1/3)</t>
+  </si>
+  <si>
+    <t>Calculated water depth in the reactor [m]</t>
+  </si>
+  <si>
+    <t>tank_diameter * tank_H_to_D_ratio</t>
+  </si>
+  <si>
+    <t>Total height of the reactor including freeboard [m]</t>
+  </si>
+  <si>
+    <t>tank_water_depth + tank_freeboard</t>
+  </si>
+  <si>
+    <t>Volume of excavation required for the tank [m³]</t>
+  </si>
+  <si>
+    <t>(3.14159 / 4) * (tank_diameter**2) * tank_total_height</t>
+  </si>
+  <si>
+    <t>Floor area of the reactor tank [m²]</t>
+  </si>
+  <si>
+    <t>(3.14159 / 4) * (tank_diameter**2)</t>
+  </si>
+  <si>
+    <t>Surface area of the tank's cylindrical wall [m²]</t>
+  </si>
+  <si>
+    <t>3.14159 * tank_diameter * tank_total_height</t>
+  </si>
+  <si>
+    <t>Structural volume of concrete (floor + walls) assuming 0.3m thickness [m³]</t>
+  </si>
+  <si>
+    <t>(tank_floor_area * 0.3) + (tank_wall_area * 0.3)</t>
+  </si>
+  <si>
+    <t>Estimated total volume of concrete needed for the tank [m³]</t>
+  </si>
+  <si>
+    <t>tank_structural_vol * concrete_volume_factor</t>
+  </si>
+  <si>
+    <t>Total cost for tank excavation and construction [USD]</t>
+  </si>
+  <si>
+    <t>(tank_excavation_vol * unit_cost_excavation) + (tank_concrete_vol * unit_cost_concrete)</t>
+  </si>
+  <si>
+    <t>Actual Oxygen Requirement for the process [kg O₂/d]</t>
+  </si>
+  <si>
+    <t>KLa * (beta_factor * C_s_T - DO_setpoint) * V / 1000</t>
+  </si>
+  <si>
+    <t>--- Equipment Sizing &amp; Costing ---</t>
+  </si>
+  <si>
+    <t>--- Calculations for Mechanical Equipment ---</t>
+  </si>
+  <si>
+    <t>Standard Oxygen Transfer Rate required [kg O₂/d]</t>
+  </si>
+  <si>
+    <t>AOR_kg_d / (alpha_factor * ((beta_factor * C_s_T - DO_setpoint) / C_s_20) * (1.024**(T - 20)))</t>
+  </si>
+  <si>
+    <t>Required airflow from blowers at standard conditions [m³/s]</t>
+  </si>
+  <si>
+    <t>(SOTR_kg_d / (24 * 3600)) / (SOTE * air_density_kg_m3 * air_O2_percent_mass)</t>
+  </si>
+  <si>
+    <t>Required electrical power for the blowers [kW]</t>
+  </si>
+  <si>
+    <t>(required_airflow_m3_s * blower_pressure_head) / (blower_efficiency * 1000)</t>
+  </si>
+  <si>
+    <t>Capital cost of the blower system [USD]</t>
+  </si>
+  <si>
+    <t>blower_power_kW * unit_cost_blower</t>
+  </si>
+  <si>
+    <t>Total number of diffusers required</t>
+  </si>
+  <si>
+    <t>tank_floor_area * diffuser_density</t>
+  </si>
+  <si>
+    <t>Capital cost of the diffuser system [USD]</t>
+  </si>
+  <si>
+    <t>num_diffusers * unit_cost_diffuser</t>
+  </si>
+  <si>
+    <t>Required electrical power for the mixers [kW]</t>
+  </si>
+  <si>
+    <t>(V * mixing_energy_density) / 1000</t>
+  </si>
+  <si>
+    <t>Capital cost of the mixing system [USD]</t>
+  </si>
+  <si>
+    <t>mixer_power_kW * unit_cost_mixer</t>
+  </si>
+  <si>
+    <t>Total cost of all mechanical equipment [USD]</t>
+  </si>
+  <si>
+    <t>cost_blower + cost_diffusers + cost_mixers</t>
+  </si>
+  <si>
+    <t>Estimated capital cost for air piping and valves [USD]</t>
+  </si>
+  <si>
+    <t>cost_equipment_total * factor_cost_piping</t>
+  </si>
+  <si>
+    <t>--- CAPEX Calculation ---</t>
+  </si>
+  <si>
+    <t>--- Summation of All Capital Costs ---</t>
+  </si>
+  <si>
+    <t>Estimated capital cost for I&amp;C system [USD]</t>
+  </si>
+  <si>
+    <t>cost_equipment_total * factor_cost_instr</t>
+  </si>
+  <si>
+    <t>Total direct and indirect cost before contingency [USD]</t>
+  </si>
+  <si>
+    <t>cost_civil + cost_equipment_total + cost_piping + cost_instrumentation</t>
+  </si>
+  <si>
+    <t>Contingency cost allowance [USD]</t>
+  </si>
+  <si>
+    <t>subtotal_capex * factor_contingency</t>
+  </si>
+  <si>
+    <t>Final Estimated Total Capital Expenditure [USD]</t>
+  </si>
+  <si>
+    <t>subtotal_capex + cost_contingency</t>
+  </si>
+  <si>
+    <t>Annual cost of electricity for blowers and mixers [USD/year]</t>
+  </si>
+  <si>
+    <t>(blower_power_kW + mixer_power_kW) * operating_hours * electricity_price</t>
+  </si>
+  <si>
+    <t>--- AOC Calculation ---</t>
+  </si>
+  <si>
+    <t>--- Summation of All Annual Operating Costs ---</t>
+  </si>
+  <si>
+    <t>Annual cost of maintenance for all assets [USD/year]</t>
+  </si>
+  <si>
+    <t>(cost_equipment_total * factor_maint_equip) + (cost_civil * factor_maint_civil)</t>
+  </si>
+  <si>
+    <t>Final Estimated Annual Operating Cost [USD/year]</t>
+  </si>
+  <si>
+    <t>annual_energy_cost + annual_maint_cost</t>
+  </si>
+  <si>
+    <t>Output Variable</t>
+  </si>
+  <si>
+    <t>C_s_T</t>
+  </si>
+  <si>
+    <t>tank_diameter</t>
+  </si>
+  <si>
+    <t>tank_water_depth</t>
+  </si>
+  <si>
+    <t>tank_total_height</t>
+  </si>
+  <si>
+    <t>tank_excavation_vol</t>
+  </si>
+  <si>
+    <t>tank_floor_area</t>
+  </si>
+  <si>
+    <t>tank_wall_area</t>
+  </si>
+  <si>
+    <t>tank_structural_vol</t>
+  </si>
+  <si>
+    <t>tank_concrete_vol</t>
+  </si>
+  <si>
+    <t>cost_civil</t>
+  </si>
+  <si>
+    <t>AOR_kg_d</t>
+  </si>
+  <si>
+    <t>SOTR_kg_d</t>
+  </si>
+  <si>
+    <t>required_airflow_m3_s</t>
+  </si>
+  <si>
+    <t>blower_power_kW</t>
+  </si>
+  <si>
+    <t>cost_blower</t>
+  </si>
+  <si>
+    <t>num_diffusers</t>
+  </si>
+  <si>
+    <t>cost_diffusers</t>
+  </si>
+  <si>
+    <t>mixer_power_kW</t>
+  </si>
+  <si>
+    <t>cost_mixers</t>
+  </si>
+  <si>
+    <t>cost_equipment_total</t>
+  </si>
+  <si>
+    <t>cost_piping</t>
+  </si>
+  <si>
+    <t>cost_instrumentation</t>
+  </si>
+  <si>
+    <t>subtotal_capex</t>
+  </si>
+  <si>
+    <t>cost_contingency</t>
+  </si>
+  <si>
+    <t>annual_energy_cost</t>
+  </si>
+  <si>
+    <t>annual_maint_cost</t>
+  </si>
+  <si>
+    <t>Sludge wastage flowrate [m³/d]</t>
+  </si>
+  <si>
+    <t>External recycle flowrate from C1 to A1 [m³/d]</t>
+  </si>
+  <si>
+    <t>Clarifier surface area [m²]</t>
+  </si>
+  <si>
+    <t>Clarifier side water depth [m]</t>
+  </si>
+  <si>
+    <t>All-in cost for reinforced concrete [USD/m³]</t>
+  </si>
+  <si>
+    <t>unit_cost_scraper</t>
+  </si>
+  <si>
+    <t>Cost of scraper mechanism per square meter of clarifier area [USD/m²]</t>
+  </si>
+  <si>
+    <t>unit_cost_pump</t>
+  </si>
+  <si>
+    <t>Cost per kilowatt of installed pump power [USD/kW]</t>
+  </si>
+  <si>
+    <t>unit_cost_electricity</t>
+  </si>
+  <si>
+    <t>Blended cost of electricity [USD/kWh]</t>
+  </si>
+  <si>
+    <t>pump_head</t>
+  </si>
+  <si>
+    <t>Total dynamic head for RAS and WAS pumps [m]</t>
   </si>
   <si>
     <t>pump_efficiency</t>
   </si>
   <si>
-    <t>Overall efficiency of the sludge pumps</t>
-  </si>
-  <si>
-    <t>TDH_pump</t>
-  </si>
-  <si>
-    <t>Total Dynamic Head for sludge pumps [m]</t>
-  </si>
-  <si>
-    <t>electricity_price</t>
-  </si>
-  <si>
-    <t>Unit price of electricity [USD/kWh]</t>
-  </si>
-  <si>
-    <t>maintenance_factor</t>
-  </si>
-  <si>
-    <t>Annual maintenance cost as a fraction of equipment cost</t>
+    <t>Overall efficiency of the pump and motor system [-]</t>
+  </si>
+  <si>
+    <t>scraper_power_density</t>
+  </si>
+  <si>
+    <t>Power required for the scraper drive per unit area [kW/m²]</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Acceleration due to gravity [m/s²]</t>
+  </si>
+  <si>
+    <t>water_density</t>
+  </si>
+  <si>
+    <t>Density of water [ kg/m ³]</t>
+  </si>
+  <si>
+    <t>annual_op_days</t>
+  </si>
+  <si>
+    <t>Number of operating days per year [d]</t>
+  </si>
+  <si>
+    <t>factor_civil_contingency</t>
+  </si>
+  <si>
+    <t>Contingency as a fraction of civil works cost [-]</t>
+  </si>
+  <si>
+    <t>factor_mech_contingency</t>
+  </si>
+  <si>
+    <t>Contingency as a fraction of mechanical equipment cost [-]</t>
+  </si>
+  <si>
+    <t>factor_eng_design</t>
+  </si>
+  <si>
+    <t>Engineering and design costs as a fraction of subtotal CAPEX [-]</t>
+  </si>
+  <si>
+    <t>aoc_maintenance_factor</t>
+  </si>
+  <si>
+    <t>Annual maintenance cost as a fraction of equipment CAPEX [-]</t>
+  </si>
+  <si>
+    <t>annual_labor_hours</t>
+  </si>
+  <si>
+    <t>Annual labor hours for operation and monitoring [hr/year]</t>
   </si>
   <si>
     <t>labor_rate</t>
   </si>
   <si>
-    <t>Hourly labor rate for operators [USD/hour]</t>
-  </si>
-  <si>
-    <t>daily_labor_hours</t>
-  </si>
-  <si>
-    <t>Daily operator hours for clarifier tasks [hours/day]</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>rho</t>
-  </si>
-  <si>
-    <t>Density of water [ kg/m3 ]</t>
-  </si>
-  <si>
-    <t>Output Variable</t>
-  </si>
-  <si>
-    <t>Calculation</t>
-  </si>
-  <si>
-    <t>V_concrete_walls</t>
-  </si>
-  <si>
-    <t>(C1_surface_area**0.5 * 4) * C1_height * C1_wall_thickness</t>
-  </si>
-  <si>
-    <t>V_concrete_base</t>
-  </si>
-  <si>
-    <t>Volume of concrete for base [m3]</t>
-  </si>
-  <si>
-    <t>C1_surface_area * C1_base_thickness</t>
-  </si>
-  <si>
-    <t>V_concrete_total</t>
-  </si>
-  <si>
-    <t>Total volume of concrete [m3]</t>
-  </si>
-  <si>
-    <t>V_concrete_walls + V_concrete_base</t>
-  </si>
-  <si>
-    <t>W_steel</t>
-  </si>
-  <si>
-    <t>Total weight of steel reinforcement [ton]</t>
-  </si>
-  <si>
-    <t>V_concrete_total * steel_reinforcement_ratio</t>
-  </si>
-  <si>
-    <t>C_const</t>
-  </si>
-  <si>
-    <t>Total Construction Cost [USD]</t>
-  </si>
-  <si>
-    <t>(V_concrete_total * unit_cost_concrete) + (W_steel * unit_cost_steel)</t>
-  </si>
-  <si>
-    <t>C_equip</t>
-  </si>
-  <si>
-    <t>Total Equipment Cost [USD]</t>
-  </si>
-  <si>
-    <t>C_const * equipment_cost_factor</t>
-  </si>
-  <si>
-    <t>C_direct</t>
-  </si>
-  <si>
-    <t>Direct Costs (Construction + Equipment) [USD]</t>
-  </si>
-  <si>
-    <t>C_const + C_equip</t>
-  </si>
-  <si>
-    <t>C_engineering</t>
-  </si>
-  <si>
-    <t>Engineering &amp; Design Cost [USD]</t>
-  </si>
-  <si>
-    <t>C_direct * engineering_cost_factor</t>
-  </si>
-  <si>
-    <t>C_contingency</t>
-  </si>
-  <si>
-    <t>Contingency Cost [USD]</t>
-  </si>
-  <si>
-    <t>C_direct * contingency_factor</t>
-  </si>
-  <si>
-    <t>Total Clarifier CAPEX [USD]</t>
-  </si>
-  <si>
-    <t>C_direct + C_engineering + C_contingency</t>
-  </si>
-  <si>
-    <t>energy_scraper_yearly</t>
-  </si>
-  <si>
-    <t>scraper_motor_power * 24 * 365</t>
-  </si>
-  <si>
-    <t>energy_pumps_yearly</t>
-  </si>
-  <si>
-    <t>Annual energy for sludge pumps [kWh/year]</t>
-  </si>
-  <si>
-    <t>((Q_was + Q_ext) * rho * g * TDH_pump) / (24 * 3600 * 1000 * pump_efficiency) * 24 * 365</t>
-  </si>
-  <si>
-    <t>C_energy</t>
-  </si>
-  <si>
-    <t>Annual Energy Cost [USD/year]</t>
-  </si>
-  <si>
-    <t>(energy_scraper_yearly + energy_pumps_yearly) * electricity_price</t>
-  </si>
-  <si>
-    <t>C_maint</t>
-  </si>
-  <si>
-    <t>Annual Maintenance Cost [USD/year]</t>
-  </si>
-  <si>
-    <t>C_equip * maintenance_factor</t>
-  </si>
-  <si>
-    <t>Annual Labor Cost [USD/year]</t>
-  </si>
-  <si>
-    <t>daily_labor_hours * 365 * labor_rate</t>
-  </si>
-  <si>
-    <t>Total Clarifier AOC [USD/year]</t>
-  </si>
-  <si>
-    <t>C_energy + C_maint + C_labor</t>
-  </si>
-  <si>
-    <t># Constants: Gravitational acceleration [m/s2]</t>
-  </si>
-  <si>
-    <t># Unit Costs &amp; Factors (AOC): Power rating of the scraper motor [kW]</t>
-  </si>
-  <si>
-    <t># Unit Costs (CAPEX): Unit cost of concrete [USD/m3]</t>
-  </si>
-  <si>
-    <t># Design Inputs: Clarifier surface area [m2]</t>
-  </si>
-  <si>
-    <t># CAPEX Calculations: Volume of concrete for walls [m3]</t>
-  </si>
-  <si>
-    <t># AOC Calculations: Annual energy for scraper [kWh/year]</t>
-  </si>
-  <si>
-    <t>Target_Effluent_S_NH4 (mg/L)</t>
-  </si>
-  <si>
-    <t>Target_Effluent_S_NO3 (mg/L)</t>
-  </si>
-  <si>
-    <t>Target_Effluent_S_PO4 (mg/L)</t>
-  </si>
-  <si>
-    <t>Target_Effluent_X_S (mg/L)</t>
+    <t>Blended hourly rate for operational labor [USD/hr]</t>
+  </si>
+  <si>
+    <t>C1_diameter</t>
+  </si>
+  <si>
+    <t>Diameter of the circular clarifier [m]</t>
+  </si>
+  <si>
+    <t>(4 * C1_surface_area / 3.14159)**0.5</t>
+  </si>
+  <si>
+    <t>--- Civil Works Sizing &amp; Costing ---</t>
+  </si>
+  <si>
+    <t>--- Calculations for Clarifier Structure ---</t>
+  </si>
+  <si>
+    <t>C1_volume</t>
+  </si>
+  <si>
+    <t>Total volume of the clarifier [m³]</t>
+  </si>
+  <si>
+    <t>C1_surface_area * C1_height</t>
+  </si>
+  <si>
+    <t>cost_excavation</t>
+  </si>
+  <si>
+    <t>Cost for clarifier excavation [USD]</t>
+  </si>
+  <si>
+    <t>C1_volume * unit_cost_excavation</t>
+  </si>
+  <si>
+    <t>cost_concrete</t>
+  </si>
+  <si>
+    <t>Cost for clarifier concrete structure [USD]</t>
+  </si>
+  <si>
+    <t>C1_volume * unit_cost_concrete</t>
+  </si>
+  <si>
+    <t>cost_civil_subtotal</t>
+  </si>
+  <si>
+    <t>Subtotal cost for civil works [USD]</t>
+  </si>
+  <si>
+    <t>cost_excavation + cost_concrete</t>
+  </si>
+  <si>
+    <t>cost_civil_total</t>
+  </si>
+  <si>
+    <t>Total civil works cost with contingency [USD]</t>
+  </si>
+  <si>
+    <t>cost_civil_subtotal * (1 + factor_civil_contingency)</t>
+  </si>
+  <si>
+    <t>cost_scraper_equip</t>
+  </si>
+  <si>
+    <t>Capital cost of the scraper mechanism [USD]</t>
+  </si>
+  <si>
+    <t>C1_surface_area * unit_cost_scraper</t>
+  </si>
+  <si>
+    <t>--- Mechanical Equipment Sizing &amp; Costing ---</t>
+  </si>
+  <si>
+    <t>--- Calculations for Scrapers and Pumps ---</t>
+  </si>
+  <si>
+    <t>pump_power_kW_ext</t>
+  </si>
+  <si>
+    <t>Required power for the external recycle (RAS) pump [kW]</t>
+  </si>
+  <si>
+    <t>(Q_ext / (24 * 3600)) * water_density * g * pump_head / (pump_efficiency * 1000)</t>
+  </si>
+  <si>
+    <t>pump_power_kW_was</t>
+  </si>
+  <si>
+    <t>Required power for the sludge wastage (WAS) pump [kW]</t>
+  </si>
+  <si>
+    <t>(Q_was / (24 * 3600)) * water_density * g * pump_head / (pump_efficiency * 1000)</t>
+  </si>
+  <si>
+    <t>pump_power_total_kW</t>
+  </si>
+  <si>
+    <t>Total installed pump power [kW]</t>
+  </si>
+  <si>
+    <t>pump_power_kW_ext + pump_power_kW_was</t>
+  </si>
+  <si>
+    <t>cost_pump_equip</t>
+  </si>
+  <si>
+    <t>Capital cost of all pumps [USD]</t>
+  </si>
+  <si>
+    <t>pump_power_total_kW * unit_cost_pump</t>
+  </si>
+  <si>
+    <t>cost_equipment_subtotal</t>
+  </si>
+  <si>
+    <t>Subtotal cost for mechanical equipment [USD]</t>
+  </si>
+  <si>
+    <t>cost_scraper_equip + cost_pump_equip</t>
+  </si>
+  <si>
+    <t>Total mechanical equipment cost with contingency [USD]</t>
+  </si>
+  <si>
+    <t>cost_equipment_subtotal * (1 + factor_mech_contingency)</t>
+  </si>
+  <si>
+    <t>capex_subtotal</t>
+  </si>
+  <si>
+    <t>Subtotal project cost before engineering [USD]</t>
+  </si>
+  <si>
+    <t>cost_civil_total + cost_equipment_total</t>
+  </si>
+  <si>
+    <t>--- Total CAPEX Calculation ---</t>
+  </si>
+  <si>
+    <t>cost_engineering</t>
+  </si>
+  <si>
+    <t>Cost for engineering and design [USD]</t>
+  </si>
+  <si>
+    <t>capex_subtotal * factor_eng_design</t>
+  </si>
+  <si>
+    <t>capex_subtotal + cost_engineering</t>
+  </si>
+  <si>
+    <t>scraper_power_kW</t>
+  </si>
+  <si>
+    <t>Operational power for the scraper drive [kW]</t>
+  </si>
+  <si>
+    <t>C1_surface_area * scraper_power_density</t>
+  </si>
+  <si>
+    <t>--- Annual Operating Cost (AOC) Calculation ---</t>
+  </si>
+  <si>
+    <t>aoc_energy_pumping</t>
+  </si>
+  <si>
+    <t>Annual energy cost for pumping (RAS + WAS) [USD/year]</t>
+  </si>
+  <si>
+    <t>pump_power_total_kW * 24 * annual_op_days * unit_cost_electricity</t>
+  </si>
+  <si>
+    <t>aoc_energy_scraper</t>
+  </si>
+  <si>
+    <t>Annual energy cost for the scraper mechanism [USD/year]</t>
+  </si>
+  <si>
+    <t>scraper_power_kW * 24 * annual_op_days * unit_cost_electricity</t>
+  </si>
+  <si>
+    <t>aoc_energy_total</t>
+  </si>
+  <si>
+    <t>Total annual cost for energy [USD/year]</t>
+  </si>
+  <si>
+    <t>aoc_energy_pumping + aoc_energy_scraper</t>
+  </si>
+  <si>
+    <t>aoc_maintenance</t>
+  </si>
+  <si>
+    <t>Annual cost for maintenance [USD/year]</t>
+  </si>
+  <si>
+    <t>cost_equipment_total * aoc_maintenance_factor</t>
+  </si>
+  <si>
+    <t>aoc_labor</t>
+  </si>
+  <si>
+    <t>Annual cost for operational labor [USD/year]</t>
+  </si>
+  <si>
+    <t>annual_labor_hours * labor_rate</t>
+  </si>
+  <si>
+    <t>Final Estimated Total Annual Operating Cost [USD/year]</t>
+  </si>
+  <si>
+    <t>aoc_energy_total + aoc_maintenance + aoc_labor</t>
+  </si>
+  <si>
+    <t>clarifier, cstr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +1012,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -483,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -491,7 +1068,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,32 +1383,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -829,50 +1436,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>34</v>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -882,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,20 +1538,24 @@
     <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -916,10 +1565,13 @@
       <c r="C2">
         <v>18446</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -927,10 +1579,13 @@
       <c r="C3">
         <v>450</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -938,10 +1593,13 @@
       <c r="C4">
         <v>25000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0.1</v>
@@ -949,10 +1607,13 @@
       <c r="C5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>800</v>
@@ -960,16 +1621,50 @@
       <c r="C6">
         <v>1800</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
         <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>800</v>
+      </c>
+      <c r="C9">
+        <v>1500</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -979,17 +1674,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB90DCB-9184-4A4C-ADAC-9EF9649A54F3}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -997,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1005,244 +1700,321 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
       </c>
       <c r="C2">
-        <v>750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C7">
-        <v>5000</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
       </c>
       <c r="C8">
-        <v>500</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>900</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>0.6</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C12">
-        <v>0.15</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C16">
-        <v>0.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>1.2250000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C18">
-        <v>0.12</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C19">
-        <v>0.03</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C21">
-        <v>1.5</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
       </c>
       <c r="C22">
-        <v>9.81</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1252,204 +2024,362 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68876A8-317C-4419-AD33-026FAB570D50}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
       <c r="C3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1459,6 +2389,578 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F836EBEE-C043-4C7A-9C59-A219722B7C00}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B75D6EC-A3BD-4AF5-A2C5-6D9D4E877C3E}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -1605,97 +3107,177 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="18.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="115.26953125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="18.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5">
+        <v>70</v>
+      </c>
+      <c r="C5" s="5">
+        <v>200</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B8" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="C8" s="5">
+        <f>B8*1.7</f>
+        <v>34000000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
-        <v>8000000</v>
-      </c>
-      <c r="C6">
-        <f>B6*1.7</f>
-        <v>13600000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <f>B6/10</f>
-        <v>800000</v>
-      </c>
-      <c r="C7">
-        <f>B7*1.8</f>
-        <v>1440000</v>
+      <c r="B9" s="5">
+        <f>B8/10</f>
+        <v>2000000</v>
+      </c>
+      <c r="C9" s="5">
+        <f>B9*1.8</f>
+        <v>3600000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/optimization_config.xlsx
+++ b/data/optimization_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\bioreactor-implementation-june\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87EB6E0-8383-4D66-891A-91D9D4598C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365F99F-D698-40F3-98D0-BFEA78FF0FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1669,6 +1669,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3112,7 +3113,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/optimization_config.xlsx
+++ b/data/optimization_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\bioreactor-implementation-june\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677C0DE3-C568-42F3-BF7B-675C6989BF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A6CCBA-099C-424E-87D0-B43653A5B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -661,11 +661,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -683,7 +687,7 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>15.3</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -694,7 +698,7 @@
         <v>34</v>
       </c>
       <c r="B3">
-        <v>1370.1</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -705,7 +709,7 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>1.48</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -716,7 +720,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>19.66</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -727,7 +731,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>300.12</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -738,7 +742,7 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>43.54</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
@@ -760,7 +764,7 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <v>5.91</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -771,7 +775,7 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
@@ -782,7 +786,7 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>17.25</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -793,7 +797,7 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>0.18</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -804,7 +808,7 @@
         <v>54</v>
       </c>
       <c r="B13">
-        <v>87.39</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -815,7 +819,7 @@
         <v>56</v>
       </c>
       <c r="B14">
-        <v>3022.2</v>
+        <v>3000</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
@@ -826,7 +830,7 @@
         <v>58</v>
       </c>
       <c r="B15">
-        <v>105.75</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -837,7 +841,7 @@
         <v>60</v>
       </c>
       <c r="B16">
-        <v>80.010000000000005</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
@@ -848,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B17">
-        <v>108.2</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -1103,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/optimization_config.xlsx
+++ b/data/optimization_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\bioreactor-implementation-june\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A6CCBA-099C-424E-87D0-B43653A5B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDAECB1-A2B6-49B7-88B0-CFFAB183CD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <sheet name="decision_var_bound" sheetId="4" r:id="rId4"/>
     <sheet name="fuzzy_goal" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>Parameter</t>
   </si>
@@ -104,12 +117,6 @@
     <t>Target_Effluent_TSS (mg/L)</t>
   </si>
   <si>
-    <t>Target_Effluent_S_NH4 (mg/L)</t>
-  </si>
-  <si>
-    <t>Target_Effluent_S_NO3 (mg/L)</t>
-  </si>
-  <si>
     <t>Path to the trained CSTR surrogate model.</t>
   </si>
   <si>
@@ -251,10 +258,13 @@
     <t>Internal recycle flowrate [m3/d]</t>
   </si>
   <si>
-    <t>models\cstr\cstr.joblib</t>
-  </si>
-  <si>
-    <t>models\clarifier\clarifier.joblib</t>
+    <t>models\clefo\cstr\cstr.joblib</t>
+  </si>
+  <si>
+    <t>models\clefo\clarifier\clarifier.joblib</t>
+  </si>
+  <si>
+    <t>Wastage flow [m3/d]</t>
   </si>
 </sst>
 </file>
@@ -599,13 +609,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -629,13 +639,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -643,13 +653,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -661,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -684,200 +694,200 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14">
-        <v>3000</v>
+        <v>0.1</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
-        <v>150</v>
+        <v>0.1</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>0.1</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -948,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -956,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -964,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -974,10 +984,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1005,13 +1015,13 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1022,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1033,13 +1043,13 @@
         <v>10</v>
       </c>
       <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
         <v>10000</v>
       </c>
-      <c r="C4">
-        <v>30000</v>
-      </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1047,13 +1057,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C5">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1061,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1081,7 +1091,7 @@
         <v>2500</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1089,13 +1099,27 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1105,13 +1129,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1168,28 +1195,6 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/optimization_config.xlsx
+++ b/data/optimization_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\bioreactor-implementation-june\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\dissertation-cbrem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDAECB1-A2B6-49B7-88B0-CFFAB183CD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42343C00-5A6D-4041-83FA-6B397DFFCADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>Parameter</t>
   </si>
@@ -265,6 +265,48 @@
   </si>
   <si>
     <t>Wastage flow [m3/d]</t>
+  </si>
+  <si>
+    <t>inf_BOD</t>
+  </si>
+  <si>
+    <t>inf_COD</t>
+  </si>
+  <si>
+    <t>inf_TKN</t>
+  </si>
+  <si>
+    <t>inf_TN</t>
+  </si>
+  <si>
+    <t>inf_TP</t>
+  </si>
+  <si>
+    <t>inf_TSS</t>
+  </si>
+  <si>
+    <t>inf_VSS</t>
+  </si>
+  <si>
+    <t>Raw Influent Biological Oxygen Demand (mg/L)</t>
+  </si>
+  <si>
+    <t>Raw Influent Chemical Oxygen Demand (mg/L)</t>
+  </si>
+  <si>
+    <t>Raw Influent Total Kjedhal Nitrogen (mg/L)</t>
+  </si>
+  <si>
+    <t>Raw Influent Total Nitrogen (mg/L)</t>
+  </si>
+  <si>
+    <t>Raw Influent Total Phosphorus (mg/L)</t>
+  </si>
+  <si>
+    <t>Raw Influent Total Suspended Solids (mg/L)</t>
+  </si>
+  <si>
+    <t>Raw Influent Volatile Suspended Solids (mg/L)</t>
   </si>
 </sst>
 </file>
@@ -669,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,6 +930,83 @@
       </c>
       <c r="C19" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>379.82797943309998</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>1760.4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>154.42099999999999</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23">
+        <v>174.42099999999999</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <v>166.740350277819</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>1182.6926908329499</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26">
+        <v>771.45741272220005</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1106,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>500</v>
@@ -1132,7 +1251,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/optimization_config.xlsx
+++ b/data/optimization_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\dissertation-cbrem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42343C00-5A6D-4041-83FA-6B397DFFCADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C6055-8CB1-4D25-97C4-0817B70CFD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/optimization_config.xlsx
+++ b/data/optimization_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\dissertation-cbrem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C6055-8CB1-4D25-97C4-0817B70CFD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049843E-8ECF-4A86-B2A3-B67AA221ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>Parameter</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Target_Effluent_TP (mg/L)</t>
   </si>
   <si>
-    <t>Target_Effluent_TSS (mg/L)</t>
-  </si>
-  <si>
     <t>Path to the trained CSTR surrogate model.</t>
   </si>
   <si>
@@ -307,6 +304,12 @@
   </si>
   <si>
     <t>Raw Influent Volatile Suspended Solids (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_TN (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_TKN (mg/L)</t>
   </si>
 </sst>
 </file>
@@ -681,13 +684,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -695,13 +698,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -736,277 +739,277 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0.1</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0.1</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0.1</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>0.1</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20">
         <v>379.82797943309998</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>1760.4</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>154.42099999999999</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>174.42099999999999</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24">
         <v>166.740350277819</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>1182.6926908329499</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>771.45741272220005</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1022,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1069,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1077,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1085,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1093,7 +1096,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1109,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1140,7 +1143,7 @@
         <v>10000</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1154,7 +1157,7 @@
         <v>10000</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1168,7 +1171,7 @@
         <v>10000</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1182,7 +1185,7 @@
         <v>4000</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1190,13 +1193,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C6">
         <v>500</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1210,7 +1213,7 @@
         <v>2500</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1224,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1238,7 +1241,7 @@
         <v>10000</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1248,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,10 +1278,10 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1286,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1297,7 +1300,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1305,13 +1308,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
